--- a/ol-handback/OpenLocalizationTest/oltest/sysfilemoving/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/sysfilemoving/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>File Name</t>
   </si>
@@ -28,15 +28,21 @@
     <t>Latest Handoff Date</t>
   </si>
   <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-04-13 03:38:51</t>
+  </si>
+  <si>
     <t>a1111.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-04-13 03:38:51</t>
-  </si>
-  <si>
     <t>empty.yml</t>
   </si>
   <si>
@@ -76,9 +82,6 @@
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
   </si>
   <si>
-    <t>keep-the-ui-thread-responsive.md</t>
-  </si>
-  <si>
     <t>test2.md</t>
   </si>
   <si>
@@ -148,18 +151,24 @@
     <t>.md</t>
   </si>
   <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-13 03:35:35</t>
+  </si>
+  <si>
+    <t>2016-04-13 03:57:54</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 03:35:35</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>.yml</t>
   </si>
   <si>
@@ -209,9 +218,6 @@
   </si>
   <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
@@ -460,365 +466,365 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="empty.yml" r:id="rId3"/>
-    <hyperlink ref="A4" display="generate-warning and error.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="github.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="Ping.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="Pong.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId11"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
+    <hyperlink ref="A2" display="keep-the-ui-thread-responsive.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="a1111.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="empty.yml" r:id="rId4"/>
+    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="github.png" r:id="rId6"/>
+    <hyperlink ref="A7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="Ping.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="Pong.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="sync.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="test-scenario-1.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="test.yml" r:id="rId12"/>
+    <hyperlink ref="A13" display="test1-aaa.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="test1.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId16"/>
     <hyperlink ref="A17" display="test2.md" r:id="rId17"/>
     <hyperlink ref="A18" display="testimage.md" r:id="rId18"/>
     <hyperlink ref="A19" display="testmove.md" r:id="rId19"/>
@@ -861,40 +867,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -902,631 +908,639 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="empty.yml" r:id="rId4"/>
-    <hyperlink ref="D3" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="generate-warning and error.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="github.png" r:id="rId8"/>
-    <hyperlink ref="D5" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="Ping.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="Pong.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId20"/>
-    <hyperlink ref="D11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId32"/>
-    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A18" display="testimage.md" r:id="rId34"/>
-    <hyperlink ref="D18" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A19" display="testmove.md" r:id="rId36"/>
-    <hyperlink ref="D19" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId37"/>
-    <hyperlink ref="A20" display="testworkerrole.md" r:id="rId38"/>
-    <hyperlink ref="D20" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId39"/>
-    <hyperlink ref="A21" display="TOC.yml" r:id="rId40"/>
-    <hyperlink ref="D21" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.zh-cn.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="workerroletest.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="README.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId48"/>
-    <hyperlink ref="D25" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A26" display="TOC1.yml" r:id="rId50"/>
-    <hyperlink ref="D26" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A2" display="keep-the-ui-thread-responsive.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="keep-the-ui-thread-responsive.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="a1111.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="empty.yml" r:id="rId8"/>
+    <hyperlink ref="D4" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId10"/>
+    <hyperlink ref="D5" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="github.png" r:id="rId12"/>
+    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId13"/>
+    <hyperlink ref="A7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId14"/>
+    <hyperlink ref="D7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display="Ping.md" r:id="rId16"/>
+    <hyperlink ref="D8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display="Pong.md" r:id="rId18"/>
+    <hyperlink ref="D9" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A10" display="sync.md" r:id="rId20"/>
+    <hyperlink ref="D10" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A11" display="test-scenario-1.md" r:id="rId22"/>
+    <hyperlink ref="D11" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A12" display="test.yml" r:id="rId24"/>
+    <hyperlink ref="D12" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A13" display="test1-aaa.md" r:id="rId26"/>
+    <hyperlink ref="D13" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A14" display="test1.md" r:id="rId28"/>
+    <hyperlink ref="D14" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId30"/>
+    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId32"/>
+    <hyperlink ref="D16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A17" display="test2.md" r:id="rId34"/>
+    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A18" display="testimage.md" r:id="rId36"/>
+    <hyperlink ref="D18" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A19" display="testmove.md" r:id="rId38"/>
+    <hyperlink ref="D19" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A20" display="testworkerrole.md" r:id="rId40"/>
+    <hyperlink ref="D20" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="A21" display="TOC.yml" r:id="rId42"/>
+    <hyperlink ref="D21" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A22" display="workerroletest.md" r:id="rId44"/>
+    <hyperlink ref="D22" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A23" display="README.md" r:id="rId46"/>
+    <hyperlink ref="D23" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId48"/>
+    <hyperlink ref="D24" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId50"/>
+    <hyperlink ref="D25" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A26" display="TOC1.yml" r:id="rId52"/>
+    <hyperlink ref="D26" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.zh-cn.xlf" r:id="rId53"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1559,618 +1573,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
